--- a/XLSX finales/ALIANZA LIMA 2024 AUTOMATIZADO.xlsx
+++ b/XLSX finales/ALIANZA LIMA 2024 AUTOMATIZADO.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nombre Completo</t>
+          <t>Jugador</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Arquero</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -839,7 +839,9 @@
       <c r="U4" t="n">
         <v>90</v>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>-2</v>
+      </c>
       <c r="W4" t="n">
         <v>89</v>
       </c>
@@ -1363,7 +1365,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mediocampista</t>
+          <t>Defensa</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1638,12 +1640,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Darrigo</t>
+          <t>D'Arrigo</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Mediocampista</t>
+          <t>Defensa</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -2267,7 +2269,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Arquero</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -2339,7 +2341,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Arquero</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -2726,8 +2728,16 @@
       <c r="B26" t="n">
         <v>16</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VLX</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">

--- a/XLSX finales/ALIANZA LIMA 2024 AUTOMATIZADO.xlsx
+++ b/XLSX finales/ALIANZA LIMA 2024 AUTOMATIZADO.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>J6 -  Minutos</t>
+          <t>J6 - Minutos</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>J7 -  Minutos</t>
+          <t>J7 - Minutos</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -676,7 +676,9 @@
         <v>64</v>
       </c>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>45</v>
+      </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
@@ -725,7 +727,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -766,7 +768,9 @@
         <v>90</v>
       </c>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>90</v>
+      </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
@@ -811,7 +815,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -854,7 +858,9 @@
         <v>90</v>
       </c>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>25</v>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
@@ -907,7 +913,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>409</v>
+        <v>499</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -948,7 +954,9 @@
         <v>64</v>
       </c>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>90</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
@@ -997,7 +1005,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>421</v>
+        <v>506</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
@@ -1040,7 +1048,9 @@
         <v>90</v>
       </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>85</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -1093,7 +1103,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,7 +1142,9 @@
         <v>90</v>
       </c>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>90</v>
+      </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
@@ -1181,7 +1193,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1222,7 +1234,9 @@
         <v>84</v>
       </c>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>90</v>
+      </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
@@ -1316,7 +1330,9 @@
         <v>18</v>
       </c>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
@@ -1410,7 +1426,9 @@
         <v>0</v>
       </c>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
@@ -1557,7 +1575,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -1596,7 +1614,9 @@
         <v>90</v>
       </c>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>90</v>
+      </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
@@ -1649,7 +1669,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1690,7 +1710,9 @@
         <v>26</v>
       </c>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>69</v>
+      </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
@@ -1743,7 +1765,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1784,7 +1806,9 @@
         <v>0</v>
       </c>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>45</v>
+      </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
@@ -1833,7 +1857,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1874,7 +1898,9 @@
         <v>90</v>
       </c>
       <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>90</v>
+      </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
@@ -1927,7 +1953,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1968,7 +1994,9 @@
         <v>84</v>
       </c>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>30</v>
+      </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
@@ -2021,7 +2049,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2060,7 +2088,9 @@
         <v>26</v>
       </c>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>21</v>
+      </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
@@ -2146,7 +2176,9 @@
         <v>10</v>
       </c>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
@@ -2228,7 +2260,9 @@
         <v>0</v>
       </c>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
@@ -2345,7 +2379,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2388,7 +2422,9 @@
         <v>0</v>
       </c>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>60</v>
+      </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
@@ -2874,7 +2910,9 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
@@ -2923,7 +2961,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2952,7 +2990,9 @@
         <v>10</v>
       </c>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+      <c r="AC28" t="n">
+        <v>9</v>
+      </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
